--- a/Code/Results/Cases/Case_7_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_16/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.55301729597784</v>
+        <v>12.43971402666084</v>
       </c>
       <c r="C2">
-        <v>11.04139991947633</v>
+        <v>6.577654063529835</v>
       </c>
       <c r="D2">
-        <v>2.602434624597025</v>
+        <v>6.229194932530009</v>
       </c>
       <c r="E2">
-        <v>7.110463798313072</v>
+        <v>9.137969567279084</v>
       </c>
       <c r="F2">
-        <v>40.52787635975528</v>
+        <v>25.38910687065608</v>
       </c>
       <c r="G2">
-        <v>2.116517453945452</v>
+        <v>2.118856437486389</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.189944269649957</v>
+        <v>6.144820987533857</v>
       </c>
       <c r="K2">
-        <v>15.07507080618285</v>
+        <v>10.96018042936465</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.01675415941984</v>
+        <v>10.92070708728008</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.24612540014186</v>
+        <v>18.64222276893035</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.30538252974164</v>
+        <v>11.62294684151176</v>
       </c>
       <c r="C3">
-        <v>10.2619215087888</v>
+        <v>6.293855888037496</v>
       </c>
       <c r="D3">
-        <v>2.583812548261603</v>
+        <v>5.967711380684531</v>
       </c>
       <c r="E3">
-        <v>7.035565421775046</v>
+        <v>8.926928655050277</v>
       </c>
       <c r="F3">
-        <v>39.19465774734529</v>
+        <v>25.2016030361164</v>
       </c>
       <c r="G3">
-        <v>2.126487899013353</v>
+        <v>2.123980225099606</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.191802303865093</v>
+        <v>6.153510966583812</v>
       </c>
       <c r="K3">
-        <v>14.01439923145127</v>
+        <v>10.33575681378249</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.45828186772487</v>
+        <v>10.46410167858247</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.3501012941073</v>
+        <v>18.68308695737543</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.50269053598578</v>
+        <v>11.09231783815868</v>
       </c>
       <c r="C4">
-        <v>9.758290782180342</v>
+        <v>6.112759761046143</v>
       </c>
       <c r="D4">
-        <v>2.573323158558906</v>
+        <v>5.803628539253052</v>
       </c>
       <c r="E4">
-        <v>6.993032727271007</v>
+        <v>8.799636465028046</v>
       </c>
       <c r="F4">
-        <v>38.38771114301543</v>
+        <v>25.10562826251558</v>
       </c>
       <c r="G4">
-        <v>2.132754879565755</v>
+        <v>2.127224837672231</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.195495174021415</v>
+        <v>6.161403595324535</v>
       </c>
       <c r="K4">
-        <v>13.32886050108096</v>
+        <v>9.932564926946311</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.11260119250661</v>
+        <v>10.1776271967893</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.81149492972617</v>
+        <v>18.72208833176446</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.20278676613742</v>
+        <v>10.86872678139405</v>
       </c>
       <c r="C5">
-        <v>9.546671460359264</v>
+        <v>6.03729947217913</v>
       </c>
       <c r="D5">
-        <v>2.569289866644721</v>
+        <v>5.735972096133849</v>
       </c>
       <c r="E5">
-        <v>6.976557683956221</v>
+        <v>8.74839778741095</v>
       </c>
       <c r="F5">
-        <v>38.06202443946691</v>
+        <v>25.07122131252585</v>
       </c>
       <c r="G5">
-        <v>2.135347390806838</v>
+        <v>2.128572394178653</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.197621262834122</v>
+        <v>6.165248729415513</v>
       </c>
       <c r="K5">
-        <v>13.04075832011352</v>
+        <v>9.763329970009526</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.97121501208881</v>
+        <v>10.0595139643804</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.59501083699308</v>
+        <v>18.74134881556506</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.1525780863418</v>
+        <v>10.83115460282803</v>
       </c>
       <c r="C6">
-        <v>9.511143943777887</v>
+        <v>6.024670864136817</v>
       </c>
       <c r="D6">
-        <v>2.56863482039144</v>
+        <v>5.724693052208376</v>
       </c>
       <c r="E6">
-        <v>6.973873453109333</v>
+        <v>8.739929644270996</v>
       </c>
       <c r="F6">
-        <v>38.00814155418477</v>
+        <v>25.06578867287493</v>
       </c>
       <c r="G6">
-        <v>2.135780271518679</v>
+        <v>2.128797701964788</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.198011236376592</v>
+        <v>6.165924780979381</v>
       </c>
       <c r="K6">
-        <v>12.99238795112511</v>
+        <v>9.734932478636438</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.94771239495889</v>
+        <v>10.03982369412939</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.55924813849904</v>
+        <v>18.7447465770999</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.49867351980355</v>
+        <v>11.08933223010322</v>
       </c>
       <c r="C7">
-        <v>9.755462784256103</v>
+        <v>6.111748722598007</v>
       </c>
       <c r="D7">
-        <v>2.57326778252801</v>
+        <v>5.802719168716815</v>
       </c>
       <c r="E7">
-        <v>6.992807083111513</v>
+        <v>8.798942798060549</v>
       </c>
       <c r="F7">
-        <v>38.3833057542663</v>
+        <v>25.10514534950278</v>
       </c>
       <c r="G7">
-        <v>2.132789683748795</v>
+        <v>2.12724290792208</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.195521358327464</v>
+        <v>6.16145292458168</v>
       </c>
       <c r="K7">
-        <v>13.32501059406209</v>
+        <v>9.930302457982416</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.11069625148338</v>
+        <v>10.17603960397223</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.80856305891585</v>
+        <v>18.72233462367363</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.13093200702191</v>
+        <v>12.16411923881898</v>
       </c>
       <c r="C8">
-        <v>10.7777731604583</v>
+        <v>6.48125282824894</v>
       </c>
       <c r="D8">
-        <v>2.595819829366181</v>
+        <v>6.13982248656318</v>
       </c>
       <c r="E8">
-        <v>7.08391490960382</v>
+        <v>9.064762902216037</v>
       </c>
       <c r="F8">
-        <v>40.06588709709369</v>
+        <v>25.3204153246916</v>
       </c>
       <c r="G8">
-        <v>2.11992651570685</v>
+        <v>2.120603003049812</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.190042589299707</v>
+        <v>6.147278020858932</v>
       </c>
       <c r="K8">
-        <v>14.7163928640756</v>
+        <v>10.74901021171977</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.82486848024248</v>
+        <v>10.76463211892013</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.93483202718728</v>
+        <v>18.65334640347974</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.03135854954246</v>
+        <v>14.04220778921548</v>
       </c>
       <c r="C9">
-        <v>12.58838020492263</v>
+        <v>7.149464506227238</v>
       </c>
       <c r="D9">
-        <v>2.647391997531238</v>
+        <v>6.769224629836278</v>
       </c>
       <c r="E9">
-        <v>7.290509361359867</v>
+        <v>9.60165934067307</v>
       </c>
       <c r="F9">
-        <v>43.45001628952979</v>
+        <v>25.89910330803022</v>
       </c>
       <c r="G9">
-        <v>2.095745319394654</v>
+        <v>2.108337705268004</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.200526661728368</v>
+        <v>6.140415856963759</v>
       </c>
       <c r="K9">
-        <v>17.17859322909387</v>
+        <v>12.196165005779</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.19690572793345</v>
+        <v>11.86409144783413</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.23179026000417</v>
+        <v>18.63436183602392</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.98404505828915</v>
+        <v>15.2845148916815</v>
       </c>
       <c r="C10">
-        <v>13.80695524073933</v>
+        <v>7.603839936198371</v>
       </c>
       <c r="D10">
-        <v>2.689597526913158</v>
+        <v>7.208275127688626</v>
       </c>
       <c r="E10">
-        <v>7.460083865803482</v>
+        <v>10.0024107874697</v>
       </c>
       <c r="F10">
-        <v>45.980846156623</v>
+        <v>26.42530648210658</v>
       </c>
       <c r="G10">
-        <v>2.078449485220471</v>
+        <v>2.099747650640151</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.222622484747983</v>
+        <v>6.149045677210033</v>
       </c>
       <c r="K10">
-        <v>18.83378431677938</v>
+        <v>13.16204077079017</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.4221290441093</v>
+        <v>12.63560711009384</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.97075034918491</v>
+        <v>18.6995130331179</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83590751791484</v>
+        <v>15.82039166047871</v>
       </c>
       <c r="C11">
-        <v>14.33870216851021</v>
+        <v>7.802299351353819</v>
       </c>
       <c r="D11">
-        <v>2.709713185025791</v>
+        <v>7.402286220619092</v>
       </c>
       <c r="E11">
-        <v>7.54127944104266</v>
+        <v>10.18546866503173</v>
       </c>
       <c r="F11">
-        <v>47.1415473021342</v>
+        <v>26.68764981694977</v>
       </c>
       <c r="G11">
-        <v>2.070641313876193</v>
+        <v>2.095922043039562</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.236150119596292</v>
+        <v>6.15614228017576</v>
       </c>
       <c r="K11">
-        <v>19.555463460885</v>
+        <v>13.58033205572407</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.00862951204597</v>
+        <v>13.06521953884429</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.77320236281184</v>
+        <v>18.74810221215516</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.15345837650785</v>
+        <v>16.01915750209216</v>
       </c>
       <c r="C12">
-        <v>14.53696340853183</v>
+        <v>7.87624861827811</v>
       </c>
       <c r="D12">
-        <v>2.717461508818146</v>
+        <v>7.474889601618244</v>
       </c>
       <c r="E12">
-        <v>7.572627314398472</v>
+        <v>10.25484994090506</v>
       </c>
       <c r="F12">
-        <v>47.58249304797521</v>
+        <v>26.79036737276155</v>
       </c>
       <c r="G12">
-        <v>2.067689201552894</v>
+        <v>2.094484374982026</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.241804578126214</v>
+        <v>6.159302620867249</v>
       </c>
       <c r="K12">
-        <v>19.82443816904386</v>
+        <v>13.73570681982391</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.22721416297574</v>
+        <v>13.224711909695</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.07878133723789</v>
+        <v>18.76937298925156</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.08528831953652</v>
+        <v>15.97653390787904</v>
       </c>
       <c r="C13">
-        <v>14.49439963347378</v>
+        <v>7.860376056038403</v>
       </c>
       <c r="D13">
-        <v>2.715786943796117</v>
+        <v>7.459292197343717</v>
       </c>
       <c r="E13">
-        <v>7.565848948377566</v>
+        <v>10.23990541704541</v>
       </c>
       <c r="F13">
-        <v>47.48746280803775</v>
+        <v>26.76809419631487</v>
       </c>
       <c r="G13">
-        <v>2.068324851528083</v>
+        <v>2.094793526173075</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.240562595127684</v>
+        <v>6.15860067134495</v>
       </c>
       <c r="K13">
-        <v>19.76669812318969</v>
+        <v>13.70237831037694</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.1802916299009</v>
+        <v>13.19050383125383</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.01289178760693</v>
+        <v>18.76466193013034</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.86213217599054</v>
+        <v>15.83682731656861</v>
       </c>
       <c r="C14">
-        <v>14.35507445786696</v>
+        <v>7.808407396857555</v>
       </c>
       <c r="D14">
-        <v>2.710348019888194</v>
+        <v>7.408276882258106</v>
       </c>
       <c r="E14">
-        <v>7.543846294204723</v>
+        <v>10.19117572991605</v>
       </c>
       <c r="F14">
-        <v>47.17779521566835</v>
+        <v>26.69603245243528</v>
       </c>
       <c r="G14">
-        <v>2.070398372338077</v>
+        <v>2.095803549357848</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.236604462927099</v>
+        <v>6.156392704195134</v>
       </c>
       <c r="K14">
-        <v>19.57767739711399</v>
+        <v>13.5931753384096</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.02668204598051</v>
+        <v>13.07840486522823</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.79830770853299</v>
+        <v>18.74979379468395</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72479396044171</v>
+        <v>15.75071282612028</v>
       </c>
       <c r="C15">
-        <v>14.26933475481369</v>
+        <v>7.776417978964462</v>
       </c>
       <c r="D15">
-        <v>2.707033573783669</v>
+        <v>7.376914838670667</v>
       </c>
       <c r="E15">
-        <v>7.530447864254638</v>
+        <v>10.16133404701222</v>
       </c>
       <c r="F15">
-        <v>46.98830209560507</v>
+        <v>26.65233391781529</v>
       </c>
       <c r="G15">
-        <v>2.071668947716252</v>
+        <v>2.096423626705239</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.234250252111808</v>
+        <v>6.155102374249064</v>
       </c>
       <c r="K15">
-        <v>19.46134141716671</v>
+        <v>13.52589207531998</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.93213927918009</v>
+        <v>13.00932622922223</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.66709416588564</v>
+        <v>18.74106486645529</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.92765803559388</v>
+        <v>15.24890942236411</v>
       </c>
       <c r="C16">
-        <v>13.77176212679359</v>
+        <v>7.590702670003421</v>
       </c>
       <c r="D16">
-        <v>2.688301263935662</v>
+        <v>7.195477207039549</v>
       </c>
       <c r="E16">
-        <v>7.45486059300667</v>
+        <v>9.99045855199115</v>
       </c>
       <c r="F16">
-        <v>45.90518432745947</v>
+        <v>26.40863014416696</v>
       </c>
       <c r="G16">
-        <v>2.078960645653747</v>
+        <v>2.099999247595664</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.221811039065674</v>
+        <v>6.148647150185785</v>
       </c>
       <c r="K16">
-        <v>18.78600718031517</v>
+        <v>13.13428073238995</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.38330016855516</v>
+        <v>12.60914883312784</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.91854219725898</v>
+        <v>18.69673144001957</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.42945164967413</v>
+        <v>14.93360953270812</v>
       </c>
       <c r="C17">
-        <v>13.46083279391335</v>
+        <v>7.474647403340033</v>
       </c>
       <c r="D17">
-        <v>2.677043340295957</v>
+        <v>7.082674259786772</v>
       </c>
       <c r="E17">
-        <v>7.409540593805302</v>
+        <v>9.88578999054492</v>
       </c>
       <c r="F17">
-        <v>45.24315542202261</v>
+        <v>26.26506148621371</v>
       </c>
       <c r="G17">
-        <v>2.083446529566824</v>
+        <v>2.102213242536438</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.215092174022143</v>
+        <v>6.145511200224451</v>
       </c>
       <c r="K17">
-        <v>18.36382900542803</v>
+        <v>12.88864280694032</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.04018844727332</v>
+        <v>12.41193700378833</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.46228047110455</v>
+        <v>18.67449204422452</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.13945435616591</v>
+        <v>14.74950073486205</v>
       </c>
       <c r="C18">
-        <v>13.27985855388537</v>
+        <v>7.407120767207823</v>
       </c>
       <c r="D18">
-        <v>2.670654297958539</v>
+        <v>7.017257020667089</v>
       </c>
       <c r="E18">
-        <v>7.383854216359885</v>
+        <v>9.825660911220947</v>
       </c>
       <c r="F18">
-        <v>44.86325178332331</v>
+        <v>26.1846429512239</v>
       </c>
       <c r="G18">
-        <v>2.086032579643878</v>
+        <v>2.10349444727683</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.211552779336369</v>
+        <v>6.144004895332149</v>
       </c>
       <c r="K18">
-        <v>18.11804720716504</v>
+        <v>12.7453721909656</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.84043439480821</v>
+        <v>12.29758273496676</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.20091571951506</v>
+        <v>18.66347560495507</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.04066913872475</v>
+        <v>14.68668979186196</v>
       </c>
       <c r="C19">
-        <v>13.21821266175853</v>
+        <v>7.384125005348717</v>
       </c>
       <c r="D19">
-        <v>2.668505928020078</v>
+        <v>6.995017253139521</v>
       </c>
       <c r="E19">
-        <v>7.375222107573196</v>
+        <v>9.805316380628293</v>
       </c>
       <c r="F19">
-        <v>44.73477318605458</v>
+        <v>26.15778305958417</v>
       </c>
       <c r="G19">
-        <v>2.086909295283304</v>
+        <v>2.103929599601645</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.210409312153892</v>
+        <v>6.143545454759282</v>
       </c>
       <c r="K19">
-        <v>18.03431657820956</v>
+        <v>12.6965219105898</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.77238368276243</v>
+        <v>12.25870820314859</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.11260373086897</v>
+        <v>18.66004605435949</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.48284139661325</v>
+        <v>14.96745870842706</v>
       </c>
       <c r="C20">
-        <v>13.49415178381991</v>
+        <v>7.487082016137533</v>
       </c>
       <c r="D20">
-        <v>2.678232851593353</v>
+        <v>7.09473813222907</v>
       </c>
       <c r="E20">
-        <v>7.414325487383135</v>
+        <v>9.896924887156052</v>
       </c>
       <c r="F20">
-        <v>45.3135384935646</v>
+        <v>26.28012070127084</v>
       </c>
       <c r="G20">
-        <v>2.08296841711795</v>
+        <v>2.101976760056337</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.215773537585567</v>
+        <v>6.145814124538444</v>
       </c>
       <c r="K20">
-        <v>18.40907523384768</v>
+        <v>12.9149968964421</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.07696117614188</v>
+        <v>12.43302665708027</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.51073975716407</v>
+        <v>18.67667469596023</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.92781331604977</v>
+        <v>15.87797501073114</v>
       </c>
       <c r="C21">
-        <v>14.39608050505854</v>
+        <v>7.823704618911393</v>
       </c>
       <c r="D21">
-        <v>2.711942009779233</v>
+        <v>7.423285074029453</v>
       </c>
       <c r="E21">
-        <v>7.550292542512082</v>
+        <v>10.20548751002755</v>
       </c>
       <c r="F21">
-        <v>47.26871285486596</v>
+        <v>26.71710663573933</v>
       </c>
       <c r="G21">
-        <v>2.069789235828198</v>
+        <v>2.095506588922156</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.237752359042712</v>
+        <v>6.157028262169437</v>
       </c>
       <c r="K21">
-        <v>19.63331273333523</v>
+        <v>13.62533283294129</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.07189490859206</v>
+        <v>13.11141742876601</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.86128907848972</v>
+        <v>18.75408184251724</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.84297552277575</v>
+        <v>16.44883192786836</v>
       </c>
       <c r="C22">
-        <v>14.96755587558671</v>
+        <v>8.036690334213006</v>
       </c>
       <c r="D22">
-        <v>2.734736775055027</v>
+        <v>7.632957142062101</v>
       </c>
       <c r="E22">
-        <v>7.64266791400255</v>
+        <v>10.40748963852406</v>
       </c>
       <c r="F22">
-        <v>48.55485845468393</v>
+        <v>27.022396289977</v>
       </c>
       <c r="G22">
-        <v>2.061200938780247</v>
+        <v>2.091341706928942</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.255233777499798</v>
+        <v>6.167122665922023</v>
       </c>
       <c r="K22">
-        <v>20.40840505666169</v>
+        <v>14.07196677451942</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.701761286333</v>
+        <v>13.56974229378717</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.75397834731184</v>
+        <v>18.82147457560197</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.35713423194195</v>
+        <v>16.14635433091915</v>
       </c>
       <c r="C23">
-        <v>14.66414126033133</v>
+        <v>7.923662475531162</v>
       </c>
       <c r="D23">
-        <v>2.722500820415941</v>
+        <v>7.521525410294783</v>
       </c>
       <c r="E23">
-        <v>7.593037263581398</v>
+        <v>10.29966060423842</v>
       </c>
       <c r="F23">
-        <v>47.8676151718924</v>
+        <v>26.85763359724352</v>
       </c>
       <c r="G23">
-        <v>2.065783805528488</v>
+        <v>2.093559025254005</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.245607059418166</v>
+        <v>6.161476312955206</v>
       </c>
       <c r="K23">
-        <v>19.99694560379593</v>
+        <v>13.83519639151028</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.36740113162755</v>
+        <v>13.32681563924949</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.27657821823475</v>
+        <v>18.78392015849723</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.4587150327253</v>
+        <v>14.95216434155796</v>
       </c>
       <c r="C24">
-        <v>13.47909518441263</v>
+        <v>7.481462833373088</v>
       </c>
       <c r="D24">
-        <v>2.677694814033497</v>
+        <v>7.089285813026777</v>
       </c>
       <c r="E24">
-        <v>7.412161089890016</v>
+        <v>9.891890652632032</v>
       </c>
       <c r="F24">
-        <v>45.28171611256536</v>
+        <v>26.27330582911578</v>
       </c>
       <c r="G24">
-        <v>2.083184549489018</v>
+        <v>2.102083647719292</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.215464488273427</v>
+        <v>6.145676249915042</v>
       </c>
       <c r="K24">
-        <v>18.38862897765399</v>
+        <v>12.90308859884346</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.06034400649084</v>
+        <v>12.42349505477971</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.48882837130819</v>
+        <v>18.67568241923215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.27871424099573</v>
+        <v>13.55847275144236</v>
       </c>
       <c r="C25">
-        <v>12.1186901075926</v>
+        <v>6.974987832202467</v>
       </c>
       <c r="D25">
-        <v>2.632672503671543</v>
+        <v>6.602805673321513</v>
       </c>
       <c r="E25">
-        <v>7.23155386173224</v>
+        <v>9.455085685715249</v>
       </c>
       <c r="F25">
-        <v>42.52638282704246</v>
+        <v>25.7251792440251</v>
       </c>
       <c r="G25">
-        <v>2.102191403372848</v>
+        <v>2.111578838436504</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.195274107227605</v>
+        <v>6.139938339463519</v>
       </c>
       <c r="K25">
-        <v>16.54016783979761</v>
+        <v>11.82174713894497</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.82955537572009</v>
+        <v>11.5733117502387</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.60130886498936</v>
+        <v>18.62620422951471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.43971402666084</v>
+        <v>12.69587853337462</v>
       </c>
       <c r="C2">
-        <v>6.577654063529835</v>
+        <v>7.114362277321103</v>
       </c>
       <c r="D2">
-        <v>6.229194932530009</v>
+        <v>7.587160599435854</v>
       </c>
       <c r="E2">
-        <v>9.137969567279084</v>
+        <v>10.32892018675128</v>
       </c>
       <c r="F2">
-        <v>25.38910687065608</v>
+        <v>20.80107919697357</v>
       </c>
       <c r="G2">
-        <v>2.118856437486389</v>
+        <v>21.60786001350795</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.203188760880297</v>
       </c>
       <c r="J2">
-        <v>6.144820987533857</v>
+        <v>9.087244595149448</v>
       </c>
       <c r="K2">
-        <v>10.96018042936465</v>
+        <v>13.57775430681687</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.527070003182437</v>
       </c>
       <c r="M2">
-        <v>10.92070708728008</v>
+        <v>11.4599514129155</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.64222276893035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.32446325090758</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.60565893625592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.62294684151176</v>
+        <v>11.94418002456412</v>
       </c>
       <c r="C3">
-        <v>6.293855888037496</v>
+        <v>6.768558910900202</v>
       </c>
       <c r="D3">
-        <v>5.967711380684531</v>
+        <v>7.263054014064396</v>
       </c>
       <c r="E3">
-        <v>8.926928655050277</v>
+        <v>9.992448646438138</v>
       </c>
       <c r="F3">
-        <v>25.2016030361164</v>
+        <v>20.63830381437798</v>
       </c>
       <c r="G3">
-        <v>2.123980225099606</v>
+        <v>21.54314156217609</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.399596938346471</v>
       </c>
       <c r="J3">
-        <v>6.153510966583812</v>
+        <v>9.155904483323237</v>
       </c>
       <c r="K3">
-        <v>10.33575681378249</v>
+        <v>13.76120240375653</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.438086756474834</v>
       </c>
       <c r="M3">
-        <v>10.46410167858247</v>
+        <v>10.87581068618603</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.68308695737543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.77823682910055</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.6794104960864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.09231783815868</v>
+        <v>11.45689035314673</v>
       </c>
       <c r="C4">
-        <v>6.112759761046143</v>
+        <v>6.546793876198027</v>
       </c>
       <c r="D4">
-        <v>5.803628539253052</v>
+        <v>7.057143040096747</v>
       </c>
       <c r="E4">
-        <v>8.799636465028046</v>
+        <v>9.77980416866734</v>
       </c>
       <c r="F4">
-        <v>25.10562826251558</v>
+        <v>20.54863277630064</v>
       </c>
       <c r="G4">
-        <v>2.127224837672231</v>
+        <v>21.52122624378967</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.524653586137281</v>
       </c>
       <c r="J4">
-        <v>6.161403595324535</v>
+        <v>9.201722896763265</v>
       </c>
       <c r="K4">
-        <v>9.932564926946311</v>
+        <v>13.88055626840356</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.382226985240176</v>
       </c>
       <c r="M4">
-        <v>10.1776271967893</v>
+        <v>10.49985021549418</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.72208833176446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.42884908431651</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.73302158788645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.86872678139405</v>
+        <v>11.25189257459747</v>
       </c>
       <c r="C5">
-        <v>6.03729947217913</v>
+        <v>6.454124540778031</v>
       </c>
       <c r="D5">
-        <v>5.735972096133849</v>
+        <v>6.971590794866128</v>
       </c>
       <c r="E5">
-        <v>8.74839778741095</v>
+        <v>9.691710097161653</v>
       </c>
       <c r="F5">
-        <v>25.07122131252585</v>
+        <v>20.51464349838336</v>
       </c>
       <c r="G5">
-        <v>2.128572394178653</v>
+        <v>21.5166337208191</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.576750781538344</v>
       </c>
       <c r="J5">
-        <v>6.165248729415513</v>
+        <v>9.221293738987281</v>
       </c>
       <c r="K5">
-        <v>9.763329970009526</v>
+        <v>13.93084222915723</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.35916239625195</v>
       </c>
       <c r="M5">
-        <v>10.0595139643804</v>
+        <v>10.34239270562665</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.74134881556506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.28308490332286</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.75689475463965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.83115460282803</v>
+        <v>11.21746669672995</v>
       </c>
       <c r="C6">
-        <v>6.024670864136817</v>
+        <v>6.438600538486281</v>
       </c>
       <c r="D6">
-        <v>5.724693052208376</v>
+        <v>6.957288790870922</v>
       </c>
       <c r="E6">
-        <v>8.739929644270996</v>
+        <v>9.676997727792337</v>
       </c>
       <c r="F6">
-        <v>25.06578867287493</v>
+        <v>20.50915275457331</v>
       </c>
       <c r="G6">
-        <v>2.128797701964788</v>
+        <v>21.51612883310327</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.585470464567415</v>
       </c>
       <c r="J6">
-        <v>6.165924780979381</v>
+        <v>9.224597191245877</v>
       </c>
       <c r="K6">
-        <v>9.734932478636438</v>
+        <v>13.93929060593804</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.355314535620033</v>
       </c>
       <c r="M6">
-        <v>10.03982369412939</v>
+        <v>10.31599356661814</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.7447465770999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.25868078907739</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.76097930631041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.08933223010322</v>
+        <v>11.45415161067306</v>
       </c>
       <c r="C7">
-        <v>6.111748722598007</v>
+        <v>6.545553300847204</v>
       </c>
       <c r="D7">
-        <v>5.802719168716815</v>
+        <v>7.055995764787514</v>
       </c>
       <c r="E7">
-        <v>8.798942798060549</v>
+        <v>9.778621817004121</v>
       </c>
       <c r="F7">
-        <v>25.10514534950278</v>
+        <v>20.54816409522648</v>
       </c>
       <c r="G7">
-        <v>2.12724290792208</v>
+        <v>21.52114693655559</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.525351571142805</v>
       </c>
       <c r="J7">
-        <v>6.16145292458168</v>
+        <v>9.201983221170329</v>
       </c>
       <c r="K7">
-        <v>9.930302457982416</v>
+        <v>13.88122781965848</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.381917139306699</v>
       </c>
       <c r="M7">
-        <v>10.17603960397223</v>
+        <v>10.49774375368573</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.72233462367363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.4268967709275</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.73333543393645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.16411923881898</v>
+        <v>12.44206116862713</v>
       </c>
       <c r="C8">
-        <v>6.48125282824894</v>
+        <v>6.997129829430292</v>
       </c>
       <c r="D8">
-        <v>6.13982248656318</v>
+        <v>7.476895583283658</v>
       </c>
       <c r="E8">
-        <v>9.064762902216037</v>
+        <v>10.21420678155781</v>
       </c>
       <c r="F8">
-        <v>25.3204153246916</v>
+        <v>20.74280485827141</v>
       </c>
       <c r="G8">
-        <v>2.120603003049812</v>
+        <v>21.58176200672471</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.269992805851968</v>
       </c>
       <c r="J8">
-        <v>6.147278020858932</v>
+        <v>9.110145657719867</v>
       </c>
       <c r="K8">
-        <v>10.74901021171977</v>
+        <v>13.63958791345968</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.496646313261591</v>
       </c>
       <c r="M8">
-        <v>10.76463211892013</v>
+        <v>11.26218245844899</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.65334640347974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.1391046864331</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.62931884032978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.04220778921548</v>
+        <v>14.17364698982092</v>
       </c>
       <c r="C9">
-        <v>7.149464506227238</v>
+        <v>7.805095213676505</v>
       </c>
       <c r="D9">
-        <v>6.769224629836278</v>
+        <v>8.243924876918825</v>
       </c>
       <c r="E9">
-        <v>9.60165934067307</v>
+        <v>11.01722120529409</v>
       </c>
       <c r="F9">
-        <v>25.89910330803022</v>
+        <v>21.20715313980664</v>
       </c>
       <c r="G9">
-        <v>2.108337705268004</v>
+        <v>21.84806300723868</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.803985163987649</v>
       </c>
       <c r="J9">
-        <v>6.140415856963759</v>
+        <v>8.960102986687525</v>
       </c>
       <c r="K9">
-        <v>12.196165005779</v>
+        <v>13.22101524216514</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.711659150157192</v>
       </c>
       <c r="M9">
-        <v>11.86409144783413</v>
+        <v>12.62063449514538</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.63436183602392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.41980699148677</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.49453526645991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.2845148916815</v>
+        <v>15.33294245486921</v>
       </c>
       <c r="C10">
-        <v>7.603839936198371</v>
+        <v>8.341652286610712</v>
       </c>
       <c r="D10">
-        <v>7.208275127688626</v>
+        <v>8.68988654750051</v>
       </c>
       <c r="E10">
-        <v>10.0024107874697</v>
+        <v>11.39673931105004</v>
       </c>
       <c r="F10">
-        <v>26.42530648210658</v>
+        <v>21.46084604482581</v>
       </c>
       <c r="G10">
-        <v>2.099747650640151</v>
+        <v>21.98354548356508</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.631171159654933</v>
       </c>
       <c r="J10">
-        <v>6.149045677210033</v>
+        <v>8.844807695263929</v>
       </c>
       <c r="K10">
-        <v>13.16204077079017</v>
+        <v>12.90603143435252</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.796344858778869</v>
       </c>
       <c r="M10">
-        <v>12.63560711009384</v>
+        <v>13.53529714757799</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.6995130331179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.18786038936314</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.37805424281581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.82039166047871</v>
+        <v>15.95046141492527</v>
       </c>
       <c r="C11">
-        <v>7.802299351353819</v>
+        <v>8.516291798580475</v>
       </c>
       <c r="D11">
-        <v>7.402286220619092</v>
+        <v>8.215066352449675</v>
       </c>
       <c r="E11">
-        <v>10.18546866503173</v>
+        <v>10.11053932021657</v>
       </c>
       <c r="F11">
-        <v>26.68764981694977</v>
+        <v>20.38702842515519</v>
       </c>
       <c r="G11">
-        <v>2.095922043039562</v>
+        <v>20.70270569132349</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.638853664683233</v>
       </c>
       <c r="J11">
-        <v>6.15614228017576</v>
+        <v>8.582313326815264</v>
       </c>
       <c r="K11">
-        <v>13.58033205572407</v>
+        <v>12.39477741545713</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.330076672157612</v>
       </c>
       <c r="M11">
-        <v>13.06521953884429</v>
+        <v>13.98265780844273</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.74810221215516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>12.68671262787525</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.78239504052747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.01915750209216</v>
+        <v>16.23859067035206</v>
       </c>
       <c r="C12">
-        <v>7.87624861827811</v>
+        <v>8.555131922322888</v>
       </c>
       <c r="D12">
-        <v>7.474889601618244</v>
+        <v>7.718345912492275</v>
       </c>
       <c r="E12">
-        <v>10.25484994090506</v>
+        <v>9.040078746272973</v>
       </c>
       <c r="F12">
-        <v>26.79036737276155</v>
+        <v>19.41976078371669</v>
       </c>
       <c r="G12">
-        <v>2.094484374982026</v>
+        <v>19.57717578099209</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.064506870028711</v>
       </c>
       <c r="J12">
-        <v>6.159302620867249</v>
+        <v>8.384537077951581</v>
       </c>
       <c r="K12">
-        <v>13.73570681982391</v>
+        <v>12.03754151064815</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.032822315732697</v>
       </c>
       <c r="M12">
-        <v>13.224711909695</v>
+        <v>14.1760557675645</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.76937298925156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.0960974580767</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.30161519860008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.97653390787904</v>
+        <v>16.29954831085792</v>
       </c>
       <c r="C13">
-        <v>7.860376056038403</v>
+        <v>8.492593910396609</v>
       </c>
       <c r="D13">
-        <v>7.459292197343717</v>
+        <v>7.164127251513046</v>
       </c>
       <c r="E13">
-        <v>10.23990541704541</v>
+        <v>8.096995008549641</v>
       </c>
       <c r="F13">
-        <v>26.76809419631487</v>
+        <v>18.47280909944419</v>
       </c>
       <c r="G13">
-        <v>2.094793526173075</v>
+        <v>18.49867549162743</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.515509186857581</v>
       </c>
       <c r="J13">
-        <v>6.15860067134495</v>
+        <v>8.225381233108918</v>
       </c>
       <c r="K13">
-        <v>13.70237831037694</v>
+        <v>11.78058753579384</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.8610001066128</v>
       </c>
       <c r="M13">
-        <v>13.19050383125383</v>
+        <v>14.19071264763126</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.76466193013034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.38581660914562</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.88178711101917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.83682731656861</v>
+        <v>16.24046741235547</v>
       </c>
       <c r="C14">
-        <v>7.808407396857555</v>
+        <v>8.402316692466337</v>
       </c>
       <c r="D14">
-        <v>7.408276882258106</v>
+        <v>6.746357686169785</v>
       </c>
       <c r="E14">
-        <v>10.19117572991605</v>
+        <v>7.542759604802919</v>
       </c>
       <c r="F14">
-        <v>26.69603245243528</v>
+        <v>17.8250459458574</v>
       </c>
       <c r="G14">
-        <v>2.095803549357848</v>
+        <v>17.77281235336321</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.53626232970645</v>
       </c>
       <c r="J14">
-        <v>6.156392704195134</v>
+        <v>8.133158638056436</v>
       </c>
       <c r="K14">
-        <v>13.5931753384096</v>
+        <v>11.65116105658386</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.820393348962313</v>
       </c>
       <c r="M14">
-        <v>13.07840486522823</v>
+        <v>14.12038198597644</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.74979379468395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.82654003616183</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.62017915015096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.75071282612028</v>
+        <v>16.17695410969611</v>
       </c>
       <c r="C15">
-        <v>7.776417978964462</v>
+        <v>8.358128006974425</v>
       </c>
       <c r="D15">
-        <v>7.376914838670667</v>
+        <v>6.631834268551813</v>
       </c>
       <c r="E15">
-        <v>10.16133404701222</v>
+        <v>7.424050852838246</v>
       </c>
       <c r="F15">
-        <v>26.65233391781529</v>
+        <v>17.67395985128116</v>
       </c>
       <c r="G15">
-        <v>2.096423626705239</v>
+        <v>17.61015293017103</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.773138076683488</v>
       </c>
       <c r="J15">
-        <v>6.155102374249064</v>
+        <v>8.119275581261096</v>
       </c>
       <c r="K15">
-        <v>13.52589207531998</v>
+        <v>11.64046890910664</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.820574607159535</v>
       </c>
       <c r="M15">
-        <v>13.00932622922223</v>
+        <v>14.06441649092759</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.74106486645529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.66411642632498</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.57066835450057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.24890942236411</v>
+        <v>15.69676790202537</v>
       </c>
       <c r="C16">
-        <v>7.590702670003421</v>
+        <v>8.145356779117909</v>
       </c>
       <c r="D16">
-        <v>7.195477207039549</v>
+        <v>6.527853841624628</v>
       </c>
       <c r="E16">
-        <v>9.99045855199115</v>
+        <v>7.423050890121553</v>
       </c>
       <c r="F16">
-        <v>26.40863014416696</v>
+        <v>17.74943278818216</v>
       </c>
       <c r="G16">
-        <v>2.099999247595664</v>
+        <v>17.76108631132302</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.569340490346249</v>
       </c>
       <c r="J16">
-        <v>6.148647150185785</v>
+        <v>8.201762537008031</v>
       </c>
       <c r="K16">
-        <v>13.13428073238995</v>
+        <v>11.83109085414609</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.812468865265256</v>
       </c>
       <c r="M16">
-        <v>12.60914883312784</v>
+        <v>13.68670364958172</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.69673144001957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.44486155066751</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.70776653243171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.93360953270812</v>
+        <v>15.35287154770365</v>
       </c>
       <c r="C17">
-        <v>7.474647403340033</v>
+        <v>8.029215756424362</v>
       </c>
       <c r="D17">
-        <v>7.082674259786772</v>
+        <v>6.676438227127515</v>
       </c>
       <c r="E17">
-        <v>9.88578999054492</v>
+        <v>7.695891865716449</v>
       </c>
       <c r="F17">
-        <v>26.26506148621371</v>
+        <v>18.15120672715139</v>
       </c>
       <c r="G17">
-        <v>2.102213242536438</v>
+        <v>18.26197915781534</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.839319735334602</v>
       </c>
       <c r="J17">
-        <v>6.145511200224451</v>
+        <v>8.313540910228145</v>
       </c>
       <c r="K17">
-        <v>12.88864280694032</v>
+        <v>12.04371840728977</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.81559037252558</v>
       </c>
       <c r="M17">
-        <v>12.41193700378833</v>
+        <v>13.43018505334097</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.67449204422452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.58420923448476</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.9502844120529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.74950073486205</v>
+        <v>15.09461268218174</v>
       </c>
       <c r="C18">
-        <v>7.407120767207823</v>
+        <v>7.98641728395533</v>
       </c>
       <c r="D18">
-        <v>7.017257020667089</v>
+        <v>7.063138424568536</v>
       </c>
       <c r="E18">
-        <v>9.825660911220947</v>
+        <v>8.349526183175604</v>
       </c>
       <c r="F18">
-        <v>26.1846429512239</v>
+        <v>18.88402339200801</v>
       </c>
       <c r="G18">
-        <v>2.10349444727683</v>
+        <v>19.12161694259977</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.59761261096545</v>
       </c>
       <c r="J18">
-        <v>6.144004895332149</v>
+        <v>8.464210399167081</v>
       </c>
       <c r="K18">
-        <v>12.7453721909656</v>
+        <v>12.3065030943791</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.900906552774495</v>
       </c>
       <c r="M18">
-        <v>12.29758273496676</v>
+        <v>13.25454608032304</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.66347560495507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.04992094304164</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.31345079864531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.68668979186196</v>
+        <v>14.92940720112082</v>
       </c>
       <c r="C19">
-        <v>7.384125005348717</v>
+        <v>8.007373066419671</v>
       </c>
       <c r="D19">
-        <v>6.995017253139521</v>
+        <v>7.612509677863575</v>
       </c>
       <c r="E19">
-        <v>9.805316380628293</v>
+        <v>9.3859999513885</v>
       </c>
       <c r="F19">
-        <v>26.15778305958417</v>
+        <v>19.84213490491435</v>
       </c>
       <c r="G19">
-        <v>2.103929599601645</v>
+        <v>20.21917615440861</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.129223332875092</v>
       </c>
       <c r="J19">
-        <v>6.143545454759282</v>
+        <v>8.638378425337629</v>
       </c>
       <c r="K19">
-        <v>12.6965219105898</v>
+        <v>12.60337294393362</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.14626371413824</v>
       </c>
       <c r="M19">
-        <v>12.25870820314859</v>
+        <v>13.16062359202158</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.66004605435949</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.73687457296698</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.75542156511542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.96745870842706</v>
+        <v>15.03782476392128</v>
       </c>
       <c r="C20">
-        <v>7.487082016137533</v>
+        <v>8.203875675110336</v>
       </c>
       <c r="D20">
-        <v>7.09473813222907</v>
+        <v>8.571543212958193</v>
       </c>
       <c r="E20">
-        <v>9.896924887156052</v>
+        <v>11.29073066171173</v>
       </c>
       <c r="F20">
-        <v>26.28012070127084</v>
+        <v>21.38446061368422</v>
       </c>
       <c r="G20">
-        <v>2.101976760056337</v>
+        <v>21.93406067937923</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.590204560768755</v>
       </c>
       <c r="J20">
-        <v>6.145814124538444</v>
+        <v>8.872642259030487</v>
       </c>
       <c r="K20">
-        <v>12.9149968964421</v>
+        <v>12.98430457725336</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.771369193038923</v>
       </c>
       <c r="M20">
-        <v>12.43302665708027</v>
+        <v>13.30155630543465</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.67667469596023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.98636469189326</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.40259394149084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.87797501073114</v>
+        <v>15.86614921180373</v>
       </c>
       <c r="C21">
-        <v>7.823704618911393</v>
+        <v>8.610008201823868</v>
       </c>
       <c r="D21">
-        <v>7.423285074029453</v>
+        <v>9.021890099579414</v>
       </c>
       <c r="E21">
-        <v>10.20548751002755</v>
+        <v>11.8430820091062</v>
       </c>
       <c r="F21">
-        <v>26.71710663573933</v>
+        <v>21.81115172049733</v>
       </c>
       <c r="G21">
-        <v>2.095506588922156</v>
+        <v>22.31498817013293</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.791345341579792</v>
       </c>
       <c r="J21">
-        <v>6.157028262169437</v>
+        <v>8.829321588690924</v>
       </c>
       <c r="K21">
-        <v>13.62533283294129</v>
+        <v>12.82359093835903</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.938071032924946</v>
       </c>
       <c r="M21">
-        <v>13.11141742876601</v>
+        <v>13.96561857382309</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.75408184251724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.70181409785543</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.42831279092572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.44883192786836</v>
+        <v>16.39152344592323</v>
       </c>
       <c r="C22">
-        <v>8.036690334213006</v>
+        <v>8.862236778969926</v>
       </c>
       <c r="D22">
-        <v>7.632957142062101</v>
+        <v>9.267969649050849</v>
       </c>
       <c r="E22">
-        <v>10.40748963852406</v>
+        <v>12.10651748155924</v>
       </c>
       <c r="F22">
-        <v>27.022396289977</v>
+        <v>22.02846507018219</v>
       </c>
       <c r="G22">
-        <v>2.091341706928942</v>
+        <v>22.50294861625651</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.941770538750504</v>
       </c>
       <c r="J22">
-        <v>6.167122665922023</v>
+        <v>8.792449275872221</v>
       </c>
       <c r="K22">
-        <v>14.07196677451942</v>
+        <v>12.70386286228253</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.011459694470823</v>
       </c>
       <c r="M22">
-        <v>13.56974229378717</v>
+        <v>14.38582598618659</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.82147457560197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.10454490628196</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.42232114679031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.14635433091915</v>
+        <v>16.1132234392863</v>
       </c>
       <c r="C23">
-        <v>7.923662475531162</v>
+        <v>8.728502668057642</v>
       </c>
       <c r="D23">
-        <v>7.521525410294783</v>
+        <v>9.137372354289434</v>
       </c>
       <c r="E23">
-        <v>10.29966060423842</v>
+        <v>11.9665827558382</v>
       </c>
       <c r="F23">
-        <v>26.85763359724352</v>
+        <v>21.91160314039812</v>
       </c>
       <c r="G23">
-        <v>2.093559025254005</v>
+        <v>22.40080849743515</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.861782757693726</v>
       </c>
       <c r="J23">
-        <v>6.161476312955206</v>
+        <v>8.811744200033411</v>
       </c>
       <c r="K23">
-        <v>13.83519639151028</v>
+        <v>12.76702707726577</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.97240564236475</v>
       </c>
       <c r="M23">
-        <v>13.32681563924949</v>
+        <v>14.16309231951299</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.78392015849723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.89095958491083</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.42459341018165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.95216434155796</v>
+        <v>15.01298650271364</v>
       </c>
       <c r="C24">
-        <v>7.481462833373088</v>
+        <v>8.202681363877588</v>
       </c>
       <c r="D24">
-        <v>7.089285813026777</v>
+        <v>8.626705652378844</v>
       </c>
       <c r="E24">
-        <v>9.891890652632032</v>
+        <v>11.42220323121136</v>
       </c>
       <c r="F24">
-        <v>26.27330582911578</v>
+        <v>21.48826752230848</v>
       </c>
       <c r="G24">
-        <v>2.102083647719292</v>
+        <v>22.05345967795557</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.569116971344072</v>
       </c>
       <c r="J24">
-        <v>6.145676249915042</v>
+        <v>8.893081583535952</v>
       </c>
       <c r="K24">
-        <v>12.90308859884346</v>
+        <v>13.02199706626459</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.821996526332205</v>
       </c>
       <c r="M24">
-        <v>12.42349505477971</v>
+        <v>13.28583344763832</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.67568241923215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.05239968254553</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.45305249570691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.55847275144236</v>
+        <v>13.72737679299061</v>
       </c>
       <c r="C25">
-        <v>6.974987832202467</v>
+        <v>7.59515054113802</v>
       </c>
       <c r="D25">
-        <v>6.602805673321513</v>
+        <v>8.043116667207636</v>
       </c>
       <c r="E25">
-        <v>9.455085685715249</v>
+        <v>10.80587095432769</v>
       </c>
       <c r="F25">
-        <v>25.7251792440251</v>
+        <v>21.07253915265989</v>
       </c>
       <c r="G25">
-        <v>2.111578838436504</v>
+        <v>21.75941643889135</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.926427207330695</v>
       </c>
       <c r="J25">
-        <v>6.139938339463519</v>
+        <v>8.997330309918166</v>
       </c>
       <c r="K25">
-        <v>11.82174713894497</v>
+        <v>13.32803591696491</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.654594013275364</v>
       </c>
       <c r="M25">
-        <v>11.5733117502387</v>
+        <v>12.2685947427757</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.62620422951471</v>
+        <v>12.08635001907564</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.52314310169562</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.69587853337462</v>
+        <v>12.69899933201451</v>
       </c>
       <c r="C2">
-        <v>7.114362277321103</v>
+        <v>7.255278126692065</v>
       </c>
       <c r="D2">
-        <v>7.587160599435854</v>
+        <v>7.675245399467837</v>
       </c>
       <c r="E2">
-        <v>10.32892018675128</v>
+        <v>10.37805839896309</v>
       </c>
       <c r="F2">
-        <v>20.80107919697357</v>
+        <v>20.44637082175771</v>
       </c>
       <c r="G2">
-        <v>21.60786001350795</v>
+        <v>20.43736008739406</v>
       </c>
       <c r="H2">
-        <v>2.203188760880297</v>
+        <v>2.163809530840446</v>
       </c>
       <c r="J2">
-        <v>9.087244595149448</v>
+        <v>9.302674245286656</v>
       </c>
       <c r="K2">
-        <v>13.57775430681687</v>
+        <v>13.16117012014531</v>
       </c>
       <c r="L2">
-        <v>6.527070003182437</v>
+        <v>11.33542915351551</v>
       </c>
       <c r="M2">
-        <v>11.4599514129155</v>
+        <v>8.109019589969947</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.530418833860368</v>
       </c>
       <c r="O2">
-        <v>11.32446325090758</v>
+        <v>11.52111784880341</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.60565893625592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.3980205273512</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.3147846439156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.94418002456412</v>
+        <v>11.98136882078814</v>
       </c>
       <c r="C3">
-        <v>6.768558910900202</v>
+        <v>6.800416998170792</v>
       </c>
       <c r="D3">
-        <v>7.263054014064396</v>
+        <v>7.346584148092184</v>
       </c>
       <c r="E3">
-        <v>9.992448646438138</v>
+        <v>10.04981733113809</v>
       </c>
       <c r="F3">
-        <v>20.63830381437798</v>
+        <v>20.31397939519002</v>
       </c>
       <c r="G3">
-        <v>21.54314156217609</v>
+        <v>20.45873709117977</v>
       </c>
       <c r="H3">
-        <v>2.399596938346471</v>
+        <v>2.350761823721201</v>
       </c>
       <c r="J3">
-        <v>9.155904483323237</v>
+        <v>9.341890926749622</v>
       </c>
       <c r="K3">
-        <v>13.76120240375653</v>
+        <v>13.34841718737125</v>
       </c>
       <c r="L3">
-        <v>6.438086756474834</v>
+        <v>11.52406835067642</v>
       </c>
       <c r="M3">
-        <v>10.87581068618603</v>
+        <v>8.233835736356546</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.448059914569025</v>
       </c>
       <c r="O3">
-        <v>10.77823682910055</v>
+        <v>10.92644914785656</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.6794104960864</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.8425240888957</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.40287389350018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.45689035314673</v>
+        <v>11.51667842720809</v>
       </c>
       <c r="C4">
-        <v>6.546793876198027</v>
+        <v>6.507122210990765</v>
       </c>
       <c r="D4">
-        <v>7.057143040096747</v>
+        <v>7.138147538821246</v>
       </c>
       <c r="E4">
-        <v>9.77980416866734</v>
+        <v>9.842717568526988</v>
       </c>
       <c r="F4">
-        <v>20.54863277630064</v>
+        <v>20.24157763073872</v>
       </c>
       <c r="G4">
-        <v>21.52122624378967</v>
+        <v>20.49029585851351</v>
       </c>
       <c r="H4">
-        <v>2.524653586137281</v>
+        <v>2.469839397232123</v>
       </c>
       <c r="J4">
-        <v>9.201722896763265</v>
+        <v>9.367998633590879</v>
       </c>
       <c r="K4">
-        <v>13.88055626840356</v>
+        <v>13.46865996399371</v>
       </c>
       <c r="L4">
-        <v>6.382226985240176</v>
+        <v>11.64577850592138</v>
       </c>
       <c r="M4">
-        <v>10.49985021549418</v>
+        <v>8.329860032752539</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.396392043494719</v>
       </c>
       <c r="O4">
-        <v>10.42884908431651</v>
+        <v>10.54381324285791</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.73302158788645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.48718308936269</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.46396835073617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.25189257459747</v>
+        <v>11.32132847008263</v>
       </c>
       <c r="C5">
-        <v>6.454124540778031</v>
+        <v>6.384168366321272</v>
       </c>
       <c r="D5">
-        <v>6.971590794866128</v>
+        <v>7.05164514219547</v>
       </c>
       <c r="E5">
-        <v>9.691710097161653</v>
+        <v>9.7570086005323</v>
       </c>
       <c r="F5">
-        <v>20.51464349838336</v>
+        <v>20.21426985953085</v>
       </c>
       <c r="G5">
-        <v>21.5166337208191</v>
+        <v>20.50759452910015</v>
       </c>
       <c r="H5">
-        <v>2.576750781538344</v>
+        <v>2.519455149021357</v>
       </c>
       <c r="J5">
-        <v>9.221293738987281</v>
+        <v>9.379139372939814</v>
       </c>
       <c r="K5">
-        <v>13.93084222915723</v>
+        <v>13.51896310858907</v>
       </c>
       <c r="L5">
-        <v>6.35916239625195</v>
+        <v>11.69686751104188</v>
       </c>
       <c r="M5">
-        <v>10.34239270562665</v>
+        <v>8.373698283632118</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.375066262013873</v>
       </c>
       <c r="O5">
-        <v>10.28308490332286</v>
+        <v>10.38359350639682</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.75689475463965</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.33893489266264</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.49056916383189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.21746669672995</v>
+        <v>11.28853157310348</v>
       </c>
       <c r="C6">
-        <v>6.438600538486281</v>
+        <v>6.363547614165878</v>
       </c>
       <c r="D6">
-        <v>6.957288790870922</v>
+        <v>7.037190482545443</v>
       </c>
       <c r="E6">
-        <v>9.676997727792337</v>
+        <v>9.742699914143259</v>
       </c>
       <c r="F6">
-        <v>20.50915275457331</v>
+        <v>20.20986690204038</v>
       </c>
       <c r="G6">
-        <v>21.51612883310327</v>
+        <v>20.51072922116598</v>
       </c>
       <c r="H6">
-        <v>2.585470464567415</v>
+        <v>2.527760037489317</v>
       </c>
       <c r="J6">
-        <v>9.224597191245877</v>
+        <v>9.381019341694762</v>
       </c>
       <c r="K6">
-        <v>13.93929060593804</v>
+        <v>13.5273940024791</v>
       </c>
       <c r="L6">
-        <v>6.355314535620033</v>
+        <v>11.70544119391785</v>
       </c>
       <c r="M6">
-        <v>10.31599356661814</v>
+        <v>8.381256925953808</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.37150895264464</v>
       </c>
       <c r="O6">
-        <v>10.25868078907739</v>
+        <v>10.3567335350955</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.76097930631041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.31411505804603</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.49508749840822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.45415161067306</v>
+        <v>11.51460511560807</v>
       </c>
       <c r="C7">
-        <v>6.545553300847204</v>
+        <v>6.500921629695557</v>
       </c>
       <c r="D7">
-        <v>7.055995764787514</v>
+        <v>7.140350198614247</v>
       </c>
       <c r="E7">
-        <v>9.778621817004121</v>
+        <v>9.842445706837061</v>
       </c>
       <c r="F7">
-        <v>20.54816409522648</v>
+        <v>20.22929176038348</v>
       </c>
       <c r="G7">
-        <v>21.52114693655559</v>
+        <v>20.55669186971602</v>
       </c>
       <c r="H7">
-        <v>2.525351571142805</v>
+        <v>2.470982821829811</v>
       </c>
       <c r="J7">
-        <v>9.201983221170329</v>
+        <v>9.339175592188399</v>
       </c>
       <c r="K7">
-        <v>13.88122781965848</v>
+        <v>13.46432988682197</v>
       </c>
       <c r="L7">
-        <v>6.381917139306699</v>
+        <v>11.64146242112781</v>
       </c>
       <c r="M7">
-        <v>10.49774375368573</v>
+        <v>8.327980836244658</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.395581454855047</v>
       </c>
       <c r="O7">
-        <v>10.4268967709275</v>
+        <v>10.54049410888661</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.73333543393645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.48546764971643</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.45620681341001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.44206116862713</v>
+        <v>12.45830495185083</v>
       </c>
       <c r="C8">
-        <v>6.997129829430292</v>
+        <v>7.087227268542451</v>
       </c>
       <c r="D8">
-        <v>7.476895583283658</v>
+        <v>7.574020177795622</v>
       </c>
       <c r="E8">
-        <v>10.21420678155781</v>
+        <v>10.2690009606435</v>
       </c>
       <c r="F8">
-        <v>20.74280485827141</v>
+        <v>20.35991470736739</v>
       </c>
       <c r="G8">
-        <v>21.58176200672471</v>
+        <v>20.66168949079015</v>
       </c>
       <c r="H8">
-        <v>2.269992805851968</v>
+        <v>2.228855556109619</v>
       </c>
       <c r="J8">
-        <v>9.110145657719867</v>
+        <v>9.22160342615074</v>
       </c>
       <c r="K8">
-        <v>13.63958791345968</v>
+        <v>13.208246181436</v>
       </c>
       <c r="L8">
-        <v>6.496646313261591</v>
+        <v>11.38451350049686</v>
       </c>
       <c r="M8">
-        <v>11.26218245844899</v>
+        <v>8.137770600949056</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.50061226117173</v>
       </c>
       <c r="O8">
-        <v>11.1391046864331</v>
+        <v>11.31615197173752</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.62931884032978</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.2103348877717</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.31688920253085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.17364698982092</v>
+        <v>14.11391500109796</v>
       </c>
       <c r="C9">
-        <v>7.805095213676505</v>
+        <v>8.139711043408159</v>
       </c>
       <c r="D9">
-        <v>8.243924876918825</v>
+        <v>8.355347646673199</v>
       </c>
       <c r="E9">
-        <v>11.01722120529409</v>
+        <v>11.05481332354751</v>
       </c>
       <c r="F9">
-        <v>21.20715313980664</v>
+        <v>20.7318298214954</v>
       </c>
       <c r="G9">
-        <v>21.84806300723868</v>
+        <v>20.77758701450213</v>
       </c>
       <c r="H9">
-        <v>1.803985163987649</v>
+        <v>1.785752891931568</v>
       </c>
       <c r="J9">
-        <v>8.960102986687525</v>
+        <v>9.109768905710801</v>
       </c>
       <c r="K9">
-        <v>13.22101524216514</v>
+        <v>12.76709166228719</v>
       </c>
       <c r="L9">
-        <v>6.711659150157192</v>
+        <v>10.94520383307639</v>
       </c>
       <c r="M9">
-        <v>12.62063449514538</v>
+        <v>7.934224497804192</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.699536456072885</v>
       </c>
       <c r="O9">
-        <v>12.41980699148677</v>
+        <v>12.69882899807342</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.49453526645991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.51251256044547</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.13145965317378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.33294245486921</v>
+        <v>15.22933598188256</v>
       </c>
       <c r="C10">
-        <v>8.341652286610712</v>
+        <v>8.803580622633431</v>
       </c>
       <c r="D10">
-        <v>8.68988654750051</v>
+        <v>8.827084649695669</v>
       </c>
       <c r="E10">
-        <v>11.39673931105004</v>
+        <v>11.42841721592784</v>
       </c>
       <c r="F10">
-        <v>21.46084604482581</v>
+        <v>20.85531866457068</v>
       </c>
       <c r="G10">
-        <v>21.98354548356508</v>
+        <v>21.20635408695069</v>
       </c>
       <c r="H10">
-        <v>1.631171159654933</v>
+        <v>1.63146893985524</v>
       </c>
       <c r="J10">
-        <v>8.844807695263929</v>
+        <v>8.861736114578116</v>
       </c>
       <c r="K10">
-        <v>12.90603143435252</v>
+        <v>12.40635615009629</v>
       </c>
       <c r="L10">
-        <v>6.796344858778869</v>
+        <v>10.60700463765754</v>
       </c>
       <c r="M10">
-        <v>13.53529714757799</v>
+        <v>7.832988406986509</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.771458761898157</v>
       </c>
       <c r="O10">
-        <v>13.18786038936314</v>
+        <v>13.62297266286714</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.37805424281581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.29431405338792</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.9307228555438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.95046141492527</v>
+        <v>15.8524166145747</v>
       </c>
       <c r="C11">
-        <v>8.516291798580475</v>
+        <v>8.916855055727666</v>
       </c>
       <c r="D11">
-        <v>8.215066352449675</v>
+        <v>8.377180677626891</v>
       </c>
       <c r="E11">
-        <v>10.11053932021657</v>
+        <v>10.142765483898</v>
       </c>
       <c r="F11">
-        <v>20.38702842515519</v>
+        <v>19.69002635576236</v>
       </c>
       <c r="G11">
-        <v>20.70270569132349</v>
+        <v>20.80272007288771</v>
       </c>
       <c r="H11">
-        <v>2.638853664683233</v>
+        <v>2.633813434541188</v>
       </c>
       <c r="J11">
-        <v>8.582313326815264</v>
+        <v>8.375911268019998</v>
       </c>
       <c r="K11">
-        <v>12.39477741545713</v>
+        <v>11.90094960565354</v>
       </c>
       <c r="L11">
-        <v>6.330076672157612</v>
+        <v>10.24515324501939</v>
       </c>
       <c r="M11">
-        <v>13.98265780844273</v>
+        <v>7.476730515811964</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.303908056259921</v>
       </c>
       <c r="O11">
-        <v>12.68671262787525</v>
+        <v>14.05352357967629</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.78239504052747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.78910199474043</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.27994453709716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.23859067035206</v>
+        <v>16.15263393190515</v>
       </c>
       <c r="C12">
-        <v>8.555131922322888</v>
+        <v>8.890012867804201</v>
       </c>
       <c r="D12">
-        <v>7.718345912492275</v>
+        <v>7.885066600270123</v>
       </c>
       <c r="E12">
-        <v>9.040078746272973</v>
+        <v>9.067669385516986</v>
       </c>
       <c r="F12">
-        <v>19.41976078371669</v>
+        <v>18.71972136518861</v>
       </c>
       <c r="G12">
-        <v>19.57717578099209</v>
+        <v>20.09782711532143</v>
       </c>
       <c r="H12">
-        <v>4.064506870028711</v>
+        <v>4.068766411925303</v>
       </c>
       <c r="J12">
-        <v>8.384537077951581</v>
+        <v>8.147654765572417</v>
       </c>
       <c r="K12">
-        <v>12.03754151064815</v>
+        <v>11.58167851416087</v>
       </c>
       <c r="L12">
-        <v>6.032822315732697</v>
+        <v>10.04251466664084</v>
       </c>
       <c r="M12">
-        <v>14.1760557675645</v>
+        <v>7.20642491334239</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.010642190925455</v>
       </c>
       <c r="O12">
-        <v>12.0960974580767</v>
+        <v>14.23358065957582</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.30161519860008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.19152008726322</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.80528209877631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.29954831085792</v>
+        <v>16.23011182877163</v>
       </c>
       <c r="C13">
-        <v>8.492593910396609</v>
+        <v>8.762197596433758</v>
       </c>
       <c r="D13">
-        <v>7.164127251513046</v>
+        <v>7.313678120473134</v>
       </c>
       <c r="E13">
-        <v>8.096995008549641</v>
+        <v>8.115786783824101</v>
       </c>
       <c r="F13">
-        <v>18.47280909944419</v>
+        <v>17.8600629345405</v>
       </c>
       <c r="G13">
-        <v>18.49867549162743</v>
+        <v>18.94091856060695</v>
       </c>
       <c r="H13">
-        <v>5.515509186857581</v>
+        <v>5.518023000775898</v>
       </c>
       <c r="J13">
-        <v>8.225381233108918</v>
+        <v>8.08661093043604</v>
       </c>
       <c r="K13">
-        <v>11.78058753579384</v>
+        <v>11.39178968131209</v>
       </c>
       <c r="L13">
-        <v>5.8610001066128</v>
+        <v>9.935250494483823</v>
       </c>
       <c r="M13">
-        <v>14.19071264763126</v>
+        <v>7.003647424168821</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.846765312275476</v>
       </c>
       <c r="O13">
-        <v>11.38581660914562</v>
+        <v>14.23859800816849</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.88178711101917</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.47089371389647</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.45232615383015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.24046741235547</v>
+        <v>16.18477817952537</v>
       </c>
       <c r="C14">
-        <v>8.402316692466337</v>
+        <v>8.625205424372266</v>
       </c>
       <c r="D14">
-        <v>6.746357686169785</v>
+        <v>6.874716953695873</v>
       </c>
       <c r="E14">
-        <v>7.542759604802919</v>
+        <v>7.555335520511139</v>
       </c>
       <c r="F14">
-        <v>17.8250459458574</v>
+        <v>17.30885925419061</v>
       </c>
       <c r="G14">
-        <v>17.77281235336321</v>
+        <v>17.95296099024374</v>
       </c>
       <c r="H14">
-        <v>6.53626232970645</v>
+        <v>6.537408151844468</v>
       </c>
       <c r="J14">
-        <v>8.133158638056436</v>
+        <v>8.101053585526403</v>
       </c>
       <c r="K14">
-        <v>11.65116105658386</v>
+        <v>11.3163867007921</v>
       </c>
       <c r="L14">
-        <v>5.820393348962313</v>
+        <v>9.897031778520034</v>
       </c>
       <c r="M14">
-        <v>14.12038198597644</v>
+        <v>6.898053705725504</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.812596484380761</v>
       </c>
       <c r="O14">
-        <v>10.82654003616183</v>
+        <v>14.16297012688278</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.62017915015096</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.90270176281547</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.25959712599114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.17695410969611</v>
+        <v>16.12568805694794</v>
       </c>
       <c r="C15">
-        <v>8.358128006974425</v>
+        <v>8.568934474691513</v>
       </c>
       <c r="D15">
-        <v>6.631834268551813</v>
+        <v>6.751296745369868</v>
       </c>
       <c r="E15">
-        <v>7.424050852838246</v>
+        <v>7.435737286498282</v>
       </c>
       <c r="F15">
-        <v>17.67395985128116</v>
+        <v>17.1956919219897</v>
       </c>
       <c r="G15">
-        <v>17.61015293017103</v>
+        <v>17.64379465469115</v>
       </c>
       <c r="H15">
-        <v>6.773138076683488</v>
+        <v>6.773736557821127</v>
       </c>
       <c r="J15">
-        <v>8.119275581261096</v>
+        <v>8.129748719373779</v>
       </c>
       <c r="K15">
-        <v>11.64046890910664</v>
+        <v>11.32173459299463</v>
       </c>
       <c r="L15">
-        <v>5.820574607159535</v>
+        <v>9.90223174255217</v>
       </c>
       <c r="M15">
-        <v>14.06441649092759</v>
+        <v>6.887730713639979</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.814756989397713</v>
       </c>
       <c r="O15">
-        <v>10.66411642632498</v>
+        <v>14.1063793296317</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.57066835450057</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.7373865928981</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.23582250882229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.69676790202537</v>
+        <v>15.65629299621071</v>
       </c>
       <c r="C16">
-        <v>8.145356779117909</v>
+        <v>8.345819665449355</v>
       </c>
       <c r="D16">
-        <v>6.527853841624628</v>
+        <v>6.616696428594235</v>
       </c>
       <c r="E16">
-        <v>7.423050890121553</v>
+        <v>7.440205611771915</v>
       </c>
       <c r="F16">
-        <v>17.74943278818216</v>
+        <v>17.39226858603887</v>
       </c>
       <c r="G16">
-        <v>17.76108631132302</v>
+        <v>17.13366558772113</v>
       </c>
       <c r="H16">
-        <v>6.569340490346249</v>
+        <v>6.56720485869966</v>
       </c>
       <c r="J16">
-        <v>8.201762537008031</v>
+        <v>8.377582792122841</v>
       </c>
       <c r="K16">
-        <v>11.83109085414609</v>
+        <v>11.53957199554117</v>
       </c>
       <c r="L16">
-        <v>5.812468865265256</v>
+        <v>10.04233986094554</v>
       </c>
       <c r="M16">
-        <v>13.68670364958172</v>
+        <v>7.024132816399524</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.811518728860077</v>
       </c>
       <c r="O16">
-        <v>10.44486155066751</v>
+        <v>13.73416746343467</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.70776653243171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.51204196253273</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.44935590598756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.35287154770365</v>
+        <v>15.3141537373175</v>
       </c>
       <c r="C17">
-        <v>8.029215756424362</v>
+        <v>8.241642090539756</v>
       </c>
       <c r="D17">
-        <v>6.676438227127515</v>
+        <v>6.756515604974584</v>
       </c>
       <c r="E17">
-        <v>7.695891865716449</v>
+        <v>7.718140923619188</v>
       </c>
       <c r="F17">
-        <v>18.15120672715139</v>
+        <v>17.82538737843971</v>
       </c>
       <c r="G17">
-        <v>18.26197915781534</v>
+        <v>17.35368744890694</v>
       </c>
       <c r="H17">
-        <v>5.839319735334602</v>
+        <v>5.835176370566178</v>
       </c>
       <c r="J17">
-        <v>8.313540910228145</v>
+        <v>8.559503236525453</v>
       </c>
       <c r="K17">
-        <v>12.04371840728977</v>
+        <v>11.74524141061164</v>
       </c>
       <c r="L17">
-        <v>5.81559037252558</v>
+        <v>10.1800815652911</v>
       </c>
       <c r="M17">
-        <v>13.43018505334097</v>
+        <v>7.175109599595453</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.815622453734572</v>
       </c>
       <c r="O17">
-        <v>10.58420923448476</v>
+        <v>13.48348340810718</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.9502844120529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.65193027414675</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.70848087410366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.09461268218174</v>
+        <v>15.04866840648206</v>
       </c>
       <c r="C18">
-        <v>7.98641728395533</v>
+        <v>8.239812675368249</v>
       </c>
       <c r="D18">
-        <v>7.063138424568536</v>
+        <v>7.146044087339042</v>
       </c>
       <c r="E18">
-        <v>8.349526183175604</v>
+        <v>8.375352479817829</v>
       </c>
       <c r="F18">
-        <v>18.88402339200801</v>
+        <v>18.53979509132184</v>
       </c>
       <c r="G18">
-        <v>19.12161694259977</v>
+        <v>18.060874901248</v>
       </c>
       <c r="H18">
-        <v>4.59761261096545</v>
+        <v>4.591547014763738</v>
       </c>
       <c r="J18">
-        <v>8.464210399167081</v>
+        <v>8.730032172254981</v>
       </c>
       <c r="K18">
-        <v>12.3065030943791</v>
+        <v>11.97844996251087</v>
       </c>
       <c r="L18">
-        <v>5.900906552774495</v>
+        <v>10.34229711202357</v>
       </c>
       <c r="M18">
-        <v>13.25454608032304</v>
+        <v>7.36109968469595</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.898751229777007</v>
       </c>
       <c r="O18">
-        <v>11.04992094304164</v>
+        <v>13.31638030132356</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.31345079864531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.12362791116673</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.05493943573852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.92940720112082</v>
+        <v>14.86906938198115</v>
       </c>
       <c r="C19">
-        <v>8.007373066419671</v>
+        <v>8.32481091640576</v>
       </c>
       <c r="D19">
-        <v>7.612509677863575</v>
+        <v>7.704969487610061</v>
       </c>
       <c r="E19">
-        <v>9.3859999513885</v>
+        <v>9.413904279224138</v>
       </c>
       <c r="F19">
-        <v>19.84213490491435</v>
+        <v>19.4485932717449</v>
       </c>
       <c r="G19">
-        <v>20.21917615440861</v>
+        <v>19.06072570595041</v>
       </c>
       <c r="H19">
-        <v>3.129223332875092</v>
+        <v>3.121017634377008</v>
       </c>
       <c r="J19">
-        <v>8.638378425337629</v>
+        <v>8.895086296607044</v>
       </c>
       <c r="K19">
-        <v>12.60337294393362</v>
+        <v>12.22984280996613</v>
       </c>
       <c r="L19">
-        <v>6.14626371413824</v>
+        <v>10.52010073825894</v>
       </c>
       <c r="M19">
-        <v>13.16062359202158</v>
+        <v>7.572142629403977</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.139077579338338</v>
       </c>
       <c r="O19">
-        <v>11.73687457296698</v>
+        <v>13.23305923129594</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.75542156511542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.82024047177978</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.45922417548696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.03782476392128</v>
+        <v>14.94375732166402</v>
       </c>
       <c r="C20">
-        <v>8.203875675110336</v>
+        <v>8.646257409965772</v>
       </c>
       <c r="D20">
-        <v>8.571543212958193</v>
+        <v>8.691803776618023</v>
       </c>
       <c r="E20">
-        <v>11.29073066171173</v>
+        <v>11.32082103546629</v>
       </c>
       <c r="F20">
-        <v>21.38446061368422</v>
+        <v>20.8539033133308</v>
       </c>
       <c r="G20">
-        <v>21.93406067937923</v>
+        <v>20.84125299814581</v>
       </c>
       <c r="H20">
-        <v>1.590204560768755</v>
+        <v>1.583962743218564</v>
       </c>
       <c r="J20">
-        <v>8.872642259030487</v>
+        <v>9.020075836653223</v>
       </c>
       <c r="K20">
-        <v>12.98430457725336</v>
+        <v>12.51484754765901</v>
       </c>
       <c r="L20">
-        <v>6.771369193038923</v>
+        <v>10.70370495097303</v>
       </c>
       <c r="M20">
-        <v>13.30155630543465</v>
+        <v>7.867047601786401</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.751344008186148</v>
       </c>
       <c r="O20">
-        <v>12.98636469189326</v>
+        <v>13.39002617724676</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.40259394149084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.08858998367197</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.00671761734519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.86614921180373</v>
+        <v>15.74564518815988</v>
       </c>
       <c r="C21">
-        <v>8.610008201823868</v>
+        <v>9.091753800009245</v>
       </c>
       <c r="D21">
-        <v>9.021890099579414</v>
+        <v>9.216844376936649</v>
       </c>
       <c r="E21">
-        <v>11.8430820091062</v>
+        <v>11.88622795004911</v>
       </c>
       <c r="F21">
-        <v>21.81115172049733</v>
+        <v>20.95433413251444</v>
       </c>
       <c r="G21">
-        <v>22.31498817013293</v>
+        <v>22.72220495197294</v>
       </c>
       <c r="H21">
-        <v>1.791345341579792</v>
+        <v>1.777637363634143</v>
       </c>
       <c r="J21">
-        <v>8.829321588690924</v>
+        <v>8.419466169900964</v>
       </c>
       <c r="K21">
-        <v>12.82359093835903</v>
+        <v>12.2109697470928</v>
       </c>
       <c r="L21">
-        <v>6.938071032924946</v>
+        <v>10.43449181879155</v>
       </c>
       <c r="M21">
-        <v>13.96561857382309</v>
+        <v>7.786556569085895</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.899366154954331</v>
       </c>
       <c r="O21">
-        <v>13.70181409785543</v>
+        <v>14.04662266959915</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.42831279092572</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.81948792719611</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.80268884604024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.39152344592323</v>
+        <v>16.25669686027443</v>
       </c>
       <c r="C22">
-        <v>8.862236778969926</v>
+        <v>9.35883773547055</v>
       </c>
       <c r="D22">
-        <v>9.267969649050849</v>
+        <v>9.513811015092379</v>
       </c>
       <c r="E22">
-        <v>12.10651748155924</v>
+        <v>12.1601351379878</v>
       </c>
       <c r="F22">
-        <v>22.02846507018219</v>
+        <v>20.94542892723213</v>
       </c>
       <c r="G22">
-        <v>22.50294861625651</v>
+        <v>24.0291741976205</v>
       </c>
       <c r="H22">
-        <v>1.941770538750504</v>
+        <v>1.915610130204775</v>
       </c>
       <c r="J22">
-        <v>8.792449275872221</v>
+        <v>8.070901555700827</v>
       </c>
       <c r="K22">
-        <v>12.70386286228253</v>
+        <v>11.99099599876756</v>
       </c>
       <c r="L22">
-        <v>7.011459694470823</v>
+        <v>10.25263060441686</v>
       </c>
       <c r="M22">
-        <v>14.38582598618659</v>
+        <v>7.724217901852827</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.96096047776307</v>
       </c>
       <c r="O22">
-        <v>14.10454490628196</v>
+        <v>14.4606065118829</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.42232114679031</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.23126788171188</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.63435301538873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.1132234392863</v>
+        <v>15.98468562405658</v>
       </c>
       <c r="C23">
-        <v>8.728502668057642</v>
+        <v>9.226399383941436</v>
       </c>
       <c r="D23">
-        <v>9.137372354289434</v>
+        <v>9.348780366466146</v>
       </c>
       <c r="E23">
-        <v>11.9665827558382</v>
+        <v>12.01215231437</v>
       </c>
       <c r="F23">
-        <v>21.91160314039812</v>
+        <v>20.97908488597778</v>
       </c>
       <c r="G23">
-        <v>22.40080849743515</v>
+        <v>23.14288043901472</v>
       </c>
       <c r="H23">
-        <v>1.861782757693726</v>
+        <v>1.842978166937027</v>
       </c>
       <c r="J23">
-        <v>8.811744200033411</v>
+        <v>8.29655978261898</v>
       </c>
       <c r="K23">
-        <v>12.76702707726577</v>
+        <v>12.12091967504842</v>
       </c>
       <c r="L23">
-        <v>6.97240564236475</v>
+        <v>10.35635566406825</v>
       </c>
       <c r="M23">
-        <v>14.16309231951299</v>
+        <v>7.768697622468578</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.929197001657653</v>
       </c>
       <c r="O23">
-        <v>13.89095958491083</v>
+        <v>14.24335822524837</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.42459341018165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.01243355419649</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.74498702111016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.01298650271364</v>
+        <v>14.91764746677082</v>
       </c>
       <c r="C24">
-        <v>8.202681363877588</v>
+        <v>8.651169675602246</v>
       </c>
       <c r="D24">
-        <v>8.626705652378844</v>
+        <v>8.747499482184336</v>
       </c>
       <c r="E24">
-        <v>11.42220323121136</v>
+        <v>11.45245781434312</v>
       </c>
       <c r="F24">
-        <v>21.48826752230848</v>
+        <v>20.95429092229889</v>
       </c>
       <c r="G24">
-        <v>22.05345967795557</v>
+        <v>20.94090419840218</v>
       </c>
       <c r="H24">
-        <v>1.569116971344072</v>
+        <v>1.562805963161341</v>
       </c>
       <c r="J24">
-        <v>8.893081583535952</v>
+        <v>9.042909591971398</v>
       </c>
       <c r="K24">
-        <v>13.02199706626459</v>
+        <v>12.54779170598298</v>
       </c>
       <c r="L24">
-        <v>6.821996526332205</v>
+        <v>10.7276601570504</v>
       </c>
       <c r="M24">
-        <v>13.28583344763832</v>
+        <v>7.893076424682204</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.801515162250249</v>
       </c>
       <c r="O24">
-        <v>13.05239968254553</v>
+        <v>13.37537250285041</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.45305249570691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.15550660512023</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.05421953377478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.72737679299061</v>
+        <v>13.68622379158795</v>
       </c>
       <c r="C25">
-        <v>7.59515054113802</v>
+        <v>7.873118228977359</v>
       </c>
       <c r="D25">
-        <v>8.043116667207636</v>
+        <v>8.146261254690975</v>
       </c>
       <c r="E25">
-        <v>10.80587095432769</v>
+        <v>10.84649670732549</v>
       </c>
       <c r="F25">
-        <v>21.07253915265989</v>
+        <v>20.63961223182194</v>
       </c>
       <c r="G25">
-        <v>21.75941643889135</v>
+        <v>20.63391447525739</v>
       </c>
       <c r="H25">
-        <v>1.926427207330695</v>
+        <v>1.901555646191786</v>
       </c>
       <c r="J25">
-        <v>8.997330309918166</v>
+        <v>9.177874727728096</v>
       </c>
       <c r="K25">
-        <v>13.32803591696491</v>
+        <v>12.88863403027142</v>
       </c>
       <c r="L25">
-        <v>6.654594013275364</v>
+        <v>11.06461516195068</v>
       </c>
       <c r="M25">
-        <v>12.2685947427757</v>
+        <v>7.976467248307538</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.64736686355792</v>
       </c>
       <c r="O25">
-        <v>12.08635001907564</v>
+        <v>12.34192227796363</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.52314310169562</v>
+        <v>12.1732272280192</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.18642163746428</v>
       </c>
     </row>
   </sheetData>
